--- a/biology/Zoologie/Gérygone_à_bec_court/Gérygone_à_bec_court.xlsx
+++ b/biology/Zoologie/Gérygone_à_bec_court/Gérygone_à_bec_court.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_%C3%A0_bec_court</t>
+          <t>Gérygone_à_bec_court</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Smicrornis brevirostris
 Le Gérygone à bec court (Smicrornis brevirostris) est une espèce de passereaux de la famille des Acanthizidae originaire d'Australie. C'est la seule espèce du genre Smicrornis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_%C3%A0_bec_court</t>
+          <t>Gérygone_à_bec_court</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit oiseau d'environ 9 cm de long, de couleur jaune olive avec le bec gris, des ailes brunes, des yeux de couleur jaune pâle et des pattes grises. Les plumes de la queue sont de couleur brune avec une barre noire et une tache blanche à l'extrémité de toutes les plumes intérieures sauf la paire centrale. Les deux sexes sont semblables.
 Son régime alimentaire se compose principalement d'insectes et de larves.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_%C3%A0_bec_court</t>
+          <t>Gérygone_à_bec_court</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus petit oiseau d'Australie, on le trouve dans les bois et les forêts de toute l'Australie continentale.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_%C3%A0_bec_court</t>
+          <t>Gérygone_à_bec_court</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, 4 sous-espèces ont été décrites:
 Smicrornis brevirostris brevirostris (Gould) 1838
